--- a/기획/운빨용사 해야 될 일.xlsx
+++ b/기획/운빨용사 해야 될 일.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shangus\Documents\GitHub\OnlyLukHero\기획\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E8A00375-D01F-4365-BE41-E4592136404B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87DE0B26-9780-482A-966D-C53D493730BE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{A3C505FB-C6BA-4101-B803-C8AD7A3FBFDF}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{A3C505FB-C6BA-4101-B803-C8AD7A3FBFDF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -204,7 +204,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF7C80"/>
+        <fgColor rgb="FFFFCCCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -215,7 +215,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -238,60 +238,54 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -615,8 +609,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91FD0EC3-9E48-4B2D-BBE4-321EC8F99B0A}">
   <dimension ref="A1:Q8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -641,202 +635,202 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A1" s="1"/>
-      <c r="B1" s="2" t="s">
+      <c r="A1" s="6"/>
+      <c r="B1" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
+      <c r="P1" s="8"/>
+      <c r="Q1" s="8"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A2" s="1"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
+      <c r="A2" s="6"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="8"/>
+      <c r="P2" s="8"/>
+      <c r="Q2" s="8"/>
     </row>
     <row r="3" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="I3" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="J3" s="6" t="s">
+      <c r="J3" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="K3" s="6" t="s">
+      <c r="K3" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="L3" s="6" t="s">
+      <c r="L3" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="M3" s="6" t="s">
+      <c r="M3" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="N3" s="6" t="s">
+      <c r="N3" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="O3" s="6" t="s">
+      <c r="O3" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="P3" s="6" t="s">
+      <c r="P3" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="Q3" s="6" t="s">
+      <c r="Q3" s="11" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7"/>
-      <c r="N4" s="7"/>
-      <c r="O4" s="7"/>
-      <c r="P4" s="7"/>
-      <c r="Q4" s="7"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="13"/>
+      <c r="N4" s="13"/>
+      <c r="O4" s="13"/>
+      <c r="P4" s="13"/>
+      <c r="Q4" s="13"/>
     </row>
     <row r="5" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="7"/>
-      <c r="M5" s="7"/>
-      <c r="N5" s="7"/>
-      <c r="O5" s="7"/>
-      <c r="P5" s="7"/>
-      <c r="Q5" s="7"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="13"/>
+      <c r="N5" s="13"/>
+      <c r="O5" s="13"/>
+      <c r="P5" s="13"/>
+      <c r="Q5" s="13"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A6" s="7"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
-      <c r="N6" s="7"/>
-      <c r="O6" s="7"/>
-      <c r="P6" s="7"/>
-      <c r="Q6" s="7"/>
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A7" s="7"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
-      <c r="M7" s="7"/>
-      <c r="N7" s="7"/>
-      <c r="O7" s="7"/>
-      <c r="P7" s="7"/>
-      <c r="Q7" s="7"/>
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
     </row>
     <row r="8" spans="1:17" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
-      <c r="M8" s="7"/>
-      <c r="N8" s="7"/>
-      <c r="O8" s="7"/>
-      <c r="P8" s="7"/>
-      <c r="Q8" s="7"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -850,6 +844,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="문서" ma:contentTypeID="0x010100BCFBDA3DE6B2AD4183B616C8A7A8260D" ma:contentTypeVersion="2" ma:contentTypeDescription="새 문서를 만듭니다." ma:contentTypeScope="" ma:versionID="a91f9bfd1380a5ed29b84455724074e2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="30a39dbb-3873-4322-828d-0df4071bd5c3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2ce9a90d5eaf4b0319f41f3c520afe87" ns3:_="">
     <xsd:import namespace="30a39dbb-3873-4322-828d-0df4071bd5c3"/>
@@ -981,15 +984,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -997,6 +991,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{63AAF8B2-D5A5-4CC5-B0FF-100B5CC3CB4C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{239D5625-8063-4F1C-80AB-048F34F6DC9F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1010,14 +1012,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{63AAF8B2-D5A5-4CC5-B0FF-100B5CC3CB4C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/기획/운빨용사 해야 될 일.xlsx
+++ b/기획/운빨용사 해야 될 일.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shangus\Documents\GitHub\OnlyLukHero\기획\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87DE0B26-9780-482A-966D-C53D493730BE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B285A256-B4C3-4E7C-A93F-82ED48BFDFC1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{A3C505FB-C6BA-4101-B803-C8AD7A3FBFDF}"/>
   </bookViews>
@@ -263,6 +263,18 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -272,20 +284,8 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -609,8 +609,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91FD0EC3-9E48-4B2D-BBE4-321EC8F99B0A}">
   <dimension ref="A1:Q8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R3" sqref="R3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -635,95 +635,95 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A1" s="6"/>
-      <c r="B1" s="7" t="s">
+      <c r="A1" s="10"/>
+      <c r="B1" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
-      <c r="O1" s="8"/>
-      <c r="P1" s="8"/>
-      <c r="Q1" s="8"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
+      <c r="N1" s="12"/>
+      <c r="O1" s="12"/>
+      <c r="P1" s="12"/>
+      <c r="Q1" s="12"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A2" s="6"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
-      <c r="O2" s="8"/>
-      <c r="P2" s="8"/>
-      <c r="Q2" s="8"/>
+      <c r="A2" s="10"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="12"/>
+      <c r="O2" s="12"/>
+      <c r="P2" s="12"/>
+      <c r="Q2" s="12"/>
     </row>
     <row r="3" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="G3" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="11" t="s">
+      <c r="H3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="11" t="s">
+      <c r="I3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="J3" s="11" t="s">
+      <c r="J3" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="K3" s="11" t="s">
+      <c r="K3" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="L3" s="11" t="s">
+      <c r="L3" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="M3" s="11" t="s">
+      <c r="M3" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="N3" s="11" t="s">
+      <c r="N3" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="O3" s="11" t="s">
+      <c r="O3" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="P3" s="11" t="s">
+      <c r="P3" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="Q3" s="11" t="s">
+      <c r="Q3" s="7" t="s">
         <v>20</v>
       </c>
     </row>
@@ -731,43 +731,43 @@
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="12"/>
-      <c r="L4" s="13"/>
-      <c r="M4" s="13"/>
-      <c r="N4" s="13"/>
-      <c r="O4" s="13"/>
-      <c r="P4" s="13"/>
-      <c r="Q4" s="13"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="9"/>
+      <c r="P4" s="9"/>
+      <c r="Q4" s="9"/>
     </row>
     <row r="5" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="12"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="13"/>
-      <c r="M5" s="13"/>
-      <c r="N5" s="13"/>
-      <c r="O5" s="13"/>
-      <c r="P5" s="13"/>
-      <c r="Q5" s="13"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="9"/>
+      <c r="O5" s="9"/>
+      <c r="P5" s="9"/>
+      <c r="Q5" s="9"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
@@ -844,15 +844,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="문서" ma:contentTypeID="0x010100BCFBDA3DE6B2AD4183B616C8A7A8260D" ma:contentTypeVersion="2" ma:contentTypeDescription="새 문서를 만듭니다." ma:contentTypeScope="" ma:versionID="a91f9bfd1380a5ed29b84455724074e2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="30a39dbb-3873-4322-828d-0df4071bd5c3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2ce9a90d5eaf4b0319f41f3c520afe87" ns3:_="">
     <xsd:import namespace="30a39dbb-3873-4322-828d-0df4071bd5c3"/>
@@ -984,6 +975,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -991,14 +991,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{63AAF8B2-D5A5-4CC5-B0FF-100B5CC3CB4C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{239D5625-8063-4F1C-80AB-048F34F6DC9F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1012,6 +1004,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{63AAF8B2-D5A5-4CC5-B0FF-100B5CC3CB4C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/기획/운빨용사 해야 될 일.xlsx
+++ b/기획/운빨용사 해야 될 일.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shangus\Documents\GitHub\OnlyLukHero\기획\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B285A256-B4C3-4E7C-A93F-82ED48BFDFC1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCDB05D3-BC4C-4828-9694-C29FBD56922A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{A3C505FB-C6BA-4101-B803-C8AD7A3FBFDF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{A3C505FB-C6BA-4101-B803-C8AD7A3FBFDF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
   <si>
     <t>기능구현</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -124,6 +124,102 @@
   </si>
   <si>
     <t>행운레벨에 따른 확률 상승 기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>길</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1방향</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2방향</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아트 작업 정리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대분류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소분류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>코드번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>위</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아래</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>왼쪽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오른쪽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>위 오른쪽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오른쪽 아래</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아래 왼쪽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>왼쪽 위</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>위 아래</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>왼쪽 오른쪽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3방향</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>위, 오른, 아래</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오른, 아래, 왼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아래, 왼, 위</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>왼, 위, 오른</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4방향</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -131,7 +227,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -176,8 +272,33 @@
       <family val="1"/>
       <charset val="129"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -214,6 +335,30 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -244,7 +389,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -275,6 +420,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -284,7 +432,28 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -607,10 +776,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91FD0EC3-9E48-4B2D-BBE4-321EC8F99B0A}">
-  <dimension ref="A1:Q8"/>
+  <dimension ref="A1:Q27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R3" sqref="R3"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -635,44 +804,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A1" s="10"/>
-      <c r="B1" s="11" t="s">
+      <c r="A1" s="11"/>
+      <c r="B1" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="12"/>
-      <c r="N1" s="12"/>
-      <c r="O1" s="12"/>
-      <c r="P1" s="12"/>
-      <c r="Q1" s="12"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
+      <c r="O1" s="13"/>
+      <c r="P1" s="13"/>
+      <c r="Q1" s="13"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A2" s="10"/>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12"/>
-      <c r="N2" s="12"/>
-      <c r="O2" s="12"/>
-      <c r="P2" s="12"/>
-      <c r="Q2" s="12"/>
+      <c r="A2" s="11"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="13"/>
+      <c r="O2" s="13"/>
+      <c r="P2" s="13"/>
+      <c r="Q2" s="13"/>
     </row>
     <row r="3" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
@@ -681,7 +850,7 @@
       <c r="B3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="10" t="s">
         <v>4</v>
       </c>
       <c r="D3" s="7" t="s">
@@ -832,10 +1001,201 @@
       <c r="P8" s="2"/>
       <c r="Q8" s="2"/>
     </row>
+    <row r="11" spans="1:17" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B11" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+    </row>
+    <row r="12" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+    </row>
+    <row r="13" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B13" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="20">
+        <v>1</v>
+      </c>
+      <c r="E13" s="21" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B14" s="18"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="20">
+        <v>2</v>
+      </c>
+      <c r="E14" s="21" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B15" s="18"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="20">
+        <v>3</v>
+      </c>
+      <c r="E15" s="21" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B16" s="18"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="20">
+        <v>4</v>
+      </c>
+      <c r="E16" s="21" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B17" s="18"/>
+      <c r="C17" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" s="20">
+        <v>5</v>
+      </c>
+      <c r="E17" s="21" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B18" s="18"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="20">
+        <v>6</v>
+      </c>
+      <c r="E18" s="21" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B19" s="18"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="20">
+        <v>7</v>
+      </c>
+      <c r="E19" s="21" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B20" s="18"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="20">
+        <v>8</v>
+      </c>
+      <c r="E20" s="21" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B21" s="18"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="20">
+        <v>9</v>
+      </c>
+      <c r="E21" s="21" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B22" s="18"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="20">
+        <v>10</v>
+      </c>
+      <c r="E22" s="21" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B23" s="18"/>
+      <c r="C23" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="D23" s="20">
+        <v>11</v>
+      </c>
+      <c r="E23" s="21" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B24" s="18"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="20">
+        <v>12</v>
+      </c>
+      <c r="E24" s="21" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B25" s="18"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="20">
+        <v>13</v>
+      </c>
+      <c r="E25" s="21" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B26" s="18"/>
+      <c r="C26" s="19"/>
+      <c r="D26" s="20">
+        <v>14</v>
+      </c>
+      <c r="E26" s="21" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B27" s="18"/>
+      <c r="C27" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="D27" s="20">
+        <v>15</v>
+      </c>
+      <c r="E27" s="21" t="s">
+        <v>46</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="7">
+    <mergeCell ref="C23:C26"/>
+    <mergeCell ref="B13:B27"/>
+    <mergeCell ref="B11:E11"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:Q2"/>
+    <mergeCell ref="C13:C16"/>
+    <mergeCell ref="C17:C22"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -844,6 +1204,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="문서" ma:contentTypeID="0x010100BCFBDA3DE6B2AD4183B616C8A7A8260D" ma:contentTypeVersion="2" ma:contentTypeDescription="새 문서를 만듭니다." ma:contentTypeScope="" ma:versionID="a91f9bfd1380a5ed29b84455724074e2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="30a39dbb-3873-4322-828d-0df4071bd5c3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2ce9a90d5eaf4b0319f41f3c520afe87" ns3:_="">
     <xsd:import namespace="30a39dbb-3873-4322-828d-0df4071bd5c3"/>
@@ -975,15 +1344,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -991,6 +1351,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{63AAF8B2-D5A5-4CC5-B0FF-100B5CC3CB4C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{239D5625-8063-4F1C-80AB-048F34F6DC9F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1004,14 +1372,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{63AAF8B2-D5A5-4CC5-B0FF-100B5CC3CB4C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/기획/운빨용사 해야 될 일.xlsx
+++ b/기획/운빨용사 해야 될 일.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shangus\Documents\GitHub\OnlyLukHero\기획\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCDB05D3-BC4C-4828-9694-C29FBD56922A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D94F0D9B-F5ED-4A2E-855A-27A4E2B4C0C0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{A3C505FB-C6BA-4101-B803-C8AD7A3FBFDF}"/>
+    <workbookView xWindow="885" yWindow="705" windowWidth="20910" windowHeight="11835" xr2:uid="{A3C505FB-C6BA-4101-B803-C8AD7A3FBFDF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,13 +33,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="46">
   <si>
     <t>기능구현</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>그림</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -420,7 +416,28 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -432,28 +449,7 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -778,8 +774,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91FD0EC3-9E48-4B2D-BBE4-321EC8F99B0A}">
   <dimension ref="A1:Q27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -804,96 +800,96 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A1" s="11"/>
-      <c r="B1" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
-      <c r="N1" s="13"/>
-      <c r="O1" s="13"/>
-      <c r="P1" s="13"/>
-      <c r="Q1" s="13"/>
+      <c r="A1" s="18"/>
+      <c r="B1" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="20"/>
+      <c r="N1" s="20"/>
+      <c r="O1" s="20"/>
+      <c r="P1" s="20"/>
+      <c r="Q1" s="20"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A2" s="11"/>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
-      <c r="M2" s="13"/>
-      <c r="N2" s="13"/>
-      <c r="O2" s="13"/>
-      <c r="P2" s="13"/>
-      <c r="Q2" s="13"/>
+      <c r="A2" s="18"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="20"/>
+      <c r="O2" s="20"/>
+      <c r="P2" s="20"/>
+      <c r="Q2" s="20"/>
     </row>
     <row r="3" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="D3" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="E3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="F3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="G3" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="J3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="M3" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="N3" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="I3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="J3" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K3" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="L3" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="M3" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="N3" s="7" t="s">
+      <c r="O3" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="O3" s="7" t="s">
+      <c r="P3" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="P3" s="7" t="s">
+      <c r="Q3" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="Q3" s="7" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -917,27 +913,7 @@
       <c r="P4" s="9"/>
       <c r="Q4" s="9"/>
     </row>
-    <row r="5" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
-      <c r="L5" s="9"/>
-      <c r="M5" s="9"/>
-      <c r="N5" s="9"/>
-      <c r="O5" s="9"/>
-      <c r="P5" s="9"/>
-      <c r="Q5" s="9"/>
-    </row>
+    <row r="5" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
@@ -978,13 +954,13 @@
     </row>
     <row r="8" spans="1:17" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="C8" s="5" t="s">
         <v>11</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>12</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -1002,189 +978,189 @@
       <c r="Q8" s="2"/>
     </row>
     <row r="11" spans="1:17" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+    </row>
+    <row r="12" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
-    </row>
-    <row r="12" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="17" t="s">
+      <c r="C12" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="17" t="s">
+      <c r="D12" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="D12" s="17" t="s">
+      <c r="E12" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="E12" s="17" t="s">
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+    </row>
+    <row r="13" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B13" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" s="13">
+        <v>1</v>
+      </c>
+      <c r="E13" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="F12" s="15"/>
-      <c r="G12" s="15"/>
-    </row>
-    <row r="13" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B13" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" s="19" t="s">
+    </row>
+    <row r="14" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B14" s="16"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="13">
+        <v>2</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B15" s="16"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="13">
+        <v>3</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B16" s="16"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="13">
+        <v>4</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B17" s="16"/>
+      <c r="C17" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="20">
-        <v>1</v>
-      </c>
-      <c r="E13" s="21" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B14" s="18"/>
-      <c r="C14" s="19"/>
-      <c r="D14" s="20">
-        <v>2</v>
-      </c>
-      <c r="E14" s="21" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B15" s="18"/>
-      <c r="C15" s="19"/>
-      <c r="D15" s="20">
-        <v>3</v>
-      </c>
-      <c r="E15" s="21" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B16" s="18"/>
-      <c r="C16" s="19"/>
-      <c r="D16" s="20">
-        <v>4</v>
-      </c>
-      <c r="E16" s="21" t="s">
+      <c r="D17" s="13">
+        <v>5</v>
+      </c>
+      <c r="E17" s="14" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="2:5" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B17" s="18"/>
-      <c r="C17" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" s="20">
-        <v>5</v>
-      </c>
-      <c r="E17" s="21" t="s">
+    <row r="18" spans="2:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B18" s="16"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="13">
+        <v>6</v>
+      </c>
+      <c r="E18" s="14" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="2:5" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B18" s="18"/>
-      <c r="C18" s="19"/>
-      <c r="D18" s="20">
-        <v>6</v>
-      </c>
-      <c r="E18" s="21" t="s">
+    <row r="19" spans="2:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B19" s="16"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="13">
+        <v>7</v>
+      </c>
+      <c r="E19" s="14" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="2:5" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B19" s="18"/>
-      <c r="C19" s="19"/>
-      <c r="D19" s="20">
-        <v>7</v>
-      </c>
-      <c r="E19" s="21" t="s">
+    <row r="20" spans="2:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B20" s="16"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="13">
+        <v>8</v>
+      </c>
+      <c r="E20" s="14" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="2:5" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B20" s="18"/>
-      <c r="C20" s="19"/>
-      <c r="D20" s="20">
-        <v>8</v>
-      </c>
-      <c r="E20" s="21" t="s">
+    <row r="21" spans="2:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B21" s="16"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="13">
+        <v>9</v>
+      </c>
+      <c r="E21" s="14" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="21" spans="2:5" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B21" s="18"/>
-      <c r="C21" s="19"/>
-      <c r="D21" s="20">
-        <v>9</v>
-      </c>
-      <c r="E21" s="21" t="s">
+    <row r="22" spans="2:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B22" s="16"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="13">
+        <v>10</v>
+      </c>
+      <c r="E22" s="14" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="2:5" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B22" s="18"/>
-      <c r="C22" s="19"/>
-      <c r="D22" s="20">
-        <v>10</v>
-      </c>
-      <c r="E22" s="21" t="s">
+    <row r="23" spans="2:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B23" s="16"/>
+      <c r="C23" s="15" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="23" spans="2:5" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B23" s="18"/>
-      <c r="C23" s="19" t="s">
+      <c r="D23" s="13">
+        <v>11</v>
+      </c>
+      <c r="E23" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="D23" s="20">
-        <v>11</v>
-      </c>
-      <c r="E23" s="21" t="s">
+    </row>
+    <row r="24" spans="2:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B24" s="16"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="13">
+        <v>12</v>
+      </c>
+      <c r="E24" s="14" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="24" spans="2:5" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B24" s="18"/>
-      <c r="C24" s="19"/>
-      <c r="D24" s="20">
-        <v>12</v>
-      </c>
-      <c r="E24" s="21" t="s">
+    <row r="25" spans="2:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B25" s="16"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="13">
+        <v>13</v>
+      </c>
+      <c r="E25" s="14" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="25" spans="2:5" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B25" s="18"/>
-      <c r="C25" s="19"/>
-      <c r="D25" s="20">
-        <v>13</v>
-      </c>
-      <c r="E25" s="21" t="s">
+    <row r="26" spans="2:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B26" s="16"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="13">
+        <v>14</v>
+      </c>
+      <c r="E26" s="14" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="26" spans="2:5" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B26" s="18"/>
-      <c r="C26" s="19"/>
-      <c r="D26" s="20">
-        <v>14</v>
-      </c>
-      <c r="E26" s="21" t="s">
+    <row r="27" spans="2:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B27" s="16"/>
+      <c r="C27" s="14" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="27" spans="2:5" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B27" s="18"/>
-      <c r="C27" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="D27" s="20">
+      <c r="D27" s="13">
         <v>15</v>
       </c>
-      <c r="E27" s="21" t="s">
-        <v>46</v>
+      <c r="E27" s="14" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -1204,15 +1180,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="문서" ma:contentTypeID="0x010100BCFBDA3DE6B2AD4183B616C8A7A8260D" ma:contentTypeVersion="2" ma:contentTypeDescription="새 문서를 만듭니다." ma:contentTypeScope="" ma:versionID="a91f9bfd1380a5ed29b84455724074e2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="30a39dbb-3873-4322-828d-0df4071bd5c3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2ce9a90d5eaf4b0319f41f3c520afe87" ns3:_="">
     <xsd:import namespace="30a39dbb-3873-4322-828d-0df4071bd5c3"/>
@@ -1344,6 +1311,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -1351,14 +1327,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{63AAF8B2-D5A5-4CC5-B0FF-100B5CC3CB4C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{239D5625-8063-4F1C-80AB-048F34F6DC9F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1372,6 +1340,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{63AAF8B2-D5A5-4CC5-B0FF-100B5CC3CB4C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/기획/운빨용사 해야 될 일.xlsx
+++ b/기획/운빨용사 해야 될 일.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shangus\Documents\GitHub\OnlyLukHero\기획\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D94F0D9B-F5ED-4A2E-855A-27A4E2B4C0C0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{235C3BA2-3882-40CF-B682-0B08C43F42C6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="885" yWindow="705" windowWidth="20910" windowHeight="11835" xr2:uid="{A3C505FB-C6BA-4101-B803-C8AD7A3FBFDF}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{A3C505FB-C6BA-4101-B803-C8AD7A3FBFDF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -449,7 +449,7 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -775,7 +775,7 @@
   <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1016,6 +1016,9 @@
       <c r="E13" s="14" t="s">
         <v>30</v>
       </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B14" s="16"/>
@@ -1026,6 +1029,9 @@
       <c r="E14" s="14" t="s">
         <v>31</v>
       </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B15" s="16"/>
@@ -1036,6 +1042,9 @@
       <c r="E15" s="14" t="s">
         <v>32</v>
       </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B16" s="16"/>
@@ -1046,8 +1055,11 @@
       <c r="E16" s="14" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="17" spans="2:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="F16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B17" s="16"/>
       <c r="C17" s="15" t="s">
         <v>24</v>
@@ -1058,8 +1070,11 @@
       <c r="E17" s="14" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="18" spans="2:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="F17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B18" s="16"/>
       <c r="C18" s="15"/>
       <c r="D18" s="13">
@@ -1068,8 +1083,11 @@
       <c r="E18" s="14" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="19" spans="2:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="F18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B19" s="16"/>
       <c r="C19" s="15"/>
       <c r="D19" s="13">
@@ -1078,8 +1096,11 @@
       <c r="E19" s="14" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="20" spans="2:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B20" s="16"/>
       <c r="C20" s="15"/>
       <c r="D20" s="13">
@@ -1088,8 +1109,11 @@
       <c r="E20" s="14" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="21" spans="2:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="F20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B21" s="16"/>
       <c r="C21" s="15"/>
       <c r="D21" s="13">
@@ -1098,8 +1122,11 @@
       <c r="E21" s="14" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="22" spans="2:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="F21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B22" s="16"/>
       <c r="C22" s="15"/>
       <c r="D22" s="13">
@@ -1108,8 +1135,11 @@
       <c r="E22" s="14" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="23" spans="2:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="F22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B23" s="16"/>
       <c r="C23" s="15" t="s">
         <v>40</v>
@@ -1120,8 +1150,11 @@
       <c r="E23" s="14" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="24" spans="2:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="F23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B24" s="16"/>
       <c r="C24" s="15"/>
       <c r="D24" s="13">
@@ -1130,8 +1163,11 @@
       <c r="E24" s="14" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="25" spans="2:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="F24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B25" s="16"/>
       <c r="C25" s="15"/>
       <c r="D25" s="13">
@@ -1140,8 +1176,11 @@
       <c r="E25" s="14" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="26" spans="2:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="F25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B26" s="16"/>
       <c r="C26" s="15"/>
       <c r="D26" s="13">
@@ -1150,8 +1189,11 @@
       <c r="E26" s="14" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="27" spans="2:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="F26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B27" s="16"/>
       <c r="C27" s="14" t="s">
         <v>45</v>
@@ -1161,6 +1203,9 @@
       </c>
       <c r="E27" s="14" t="s">
         <v>45</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1180,6 +1225,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="문서" ma:contentTypeID="0x010100BCFBDA3DE6B2AD4183B616C8A7A8260D" ma:contentTypeVersion="2" ma:contentTypeDescription="새 문서를 만듭니다." ma:contentTypeScope="" ma:versionID="a91f9bfd1380a5ed29b84455724074e2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="30a39dbb-3873-4322-828d-0df4071bd5c3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2ce9a90d5eaf4b0319f41f3c520afe87" ns3:_="">
     <xsd:import namespace="30a39dbb-3873-4322-828d-0df4071bd5c3"/>
@@ -1311,15 +1365,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -1327,6 +1372,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{63AAF8B2-D5A5-4CC5-B0FF-100B5CC3CB4C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{239D5625-8063-4F1C-80AB-048F34F6DC9F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1340,14 +1393,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{63AAF8B2-D5A5-4CC5-B0FF-100B5CC3CB4C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
